--- a/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_5.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D2665-A8A2-4B13-BBEC-DFBE4B682E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39403437-0C83-489C-8B38-1BEB8C70EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7C3F92C7-A900-4347-9B66-AC4E0CFAFAEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unemployment due to Inflation" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -54,6 +51,9 @@
     <t>Inflation %</t>
   </si>
   <si>
+    <t>Linest:</t>
+  </si>
+  <si>
     <t>1960-61</t>
   </si>
   <si>
@@ -102,12 +102,12 @@
     <t>Θνησιμότητα</t>
   </si>
   <si>
-    <t>Linest:</t>
-  </si>
-  <si>
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
+    <t xml:space="preserve">The regression funcion is y=ax+b =&gt; y = </t>
+  </si>
+  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -129,6 +129,21 @@
     <t>ANOVA</t>
   </si>
   <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -138,67 +153,49 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
-  <si>
     <t>RESIDUAL OUTPUT</t>
   </si>
   <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
     <t>Observation</t>
   </si>
   <si>
+    <t>Predicted Θνησιμότητα</t>
+  </si>
+  <si>
     <t>Residuals</t>
   </si>
   <si>
     <t>Standard Residuals</t>
   </si>
   <si>
-    <t>PROBABILITY OUTPUT</t>
-  </si>
-  <si>
     <t>Percentile</t>
-  </si>
-  <si>
-    <t>Predicted Θνησιμότητα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The regression funcion is y=ax+b =&gt; y = </t>
   </si>
 </sst>
 </file>
@@ -206,47 +203,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -259,6 +233,29 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,20 +283,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -307,25 +304,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,11 +359,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="el-GR"/>
@@ -392,8 +395,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100">
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:xVal>
@@ -460,52 +465,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>14.12000443708493</c:v>
+                  <c:v>14.1200044370849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.8669235364636307</c:v>
+                  <c:v>-5.8669235364636299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.8846296437368579</c:v>
+                  <c:v>-4.8846296437368597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1357507427439373</c:v>
+                  <c:v>7.1357507427439399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.835788163942283</c:v>
+                  <c:v>-12.835788163942301</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-8.5650216040596803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.71540777746150752</c:v>
+                  <c:v>-0.71540777746150797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6626671424504593</c:v>
+                  <c:v>4.6626671424504602</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-8.4665662976669296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1242608310980984</c:v>
+                  <c:v>-1.1242608310980999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0968919021863144</c:v>
+                  <c:v>4.0968919021863099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.5534942712154987</c:v>
+                  <c:v>-5.5534942712155004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6961195553826798</c:v>
+                  <c:v>1.69611955538268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6457333819808753</c:v>
+                  <c:v>8.6457333819808806</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3099639286377567</c:v>
+                  <c:v>4.3099639286377602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3449610351772492</c:v>
+                  <c:v>3.3449610351772501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,7 +518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42B0-4B06-BBD9-35CA208D0CC8}"/>
+              <c16:uniqueId val="{00000000-CE00-4674-9A81-B0F05D7B8EFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -539,11 +544,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -558,6 +570,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250451744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -572,11 +601,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -591,6 +627,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250457504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -598,15 +651,23 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{75198a14-b465-4c93-afd5-dd3ee89850b3}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -632,11 +693,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="el-GR"/>
@@ -664,8 +732,10 @@
             <c:v>Θνησιμότητα</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100">
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:xVal>
@@ -785,7 +855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C753-407F-B8F2-B1A379365312}"/>
+              <c16:uniqueId val="{00000000-6C3C-4AF9-A34A-80628CBB4586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -876,52 +946,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>53.179995562915067</c:v>
+                  <c:v>53.179995562915103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.366923536463631</c:v>
+                  <c:v>58.366923536463602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.984629643736852</c:v>
+                  <c:v>72.984629643736895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.464249257256057</c:v>
+                  <c:v>77.4642492572561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.935788163942277</c:v>
+                  <c:v>77.935788163942306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.765021604059683</c:v>
+                  <c:v>80.765021604059697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.41540777746151</c:v>
+                  <c:v>82.415407777461496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.537332857549544</c:v>
+                  <c:v>84.537332857549501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.366566297666935</c:v>
+                  <c:v>87.366566297666907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.724260831098093</c:v>
+                  <c:v>89.724260831098107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.903108097813686</c:v>
+                  <c:v>90.9031080978137</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>92.553494271215499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.203880444617326</c:v>
+                  <c:v>94.203880444617297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.854266618019125</c:v>
+                  <c:v>95.854266618019096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.090036071362249</c:v>
+                  <c:v>96.090036071362206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.155038964822751</c:v>
+                  <c:v>99.155038964822793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +999,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C753-407F-B8F2-B1A379365312}"/>
+              <c16:uniqueId val="{00000001-6C3C-4AF9-A34A-80628CBB4586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,11 +1025,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -974,6 +1051,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250444064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -988,11 +1082,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -1007,6 +1108,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250444544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1015,18 +1133,43 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e309a873-c40b-486f-8707-02c81658fd80}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1052,11 +1195,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1077,8 +1227,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100">
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:xVal>
@@ -1198,7 +1350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEBF-4B76-BE11-9C49DFEA94D7}"/>
+              <c16:uniqueId val="{00000000-C7CB-4941-A804-C8DF1ED1ACBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1223,11 +1375,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1242,6 +1401,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250444544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1256,11 +1432,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -1275,6 +1458,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1250442144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1282,15 +1482,23 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{40038b3d-3eda-4ca4-b1c6-caa1da3c8068}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1319,7 +1527,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737E21A0-7A7D-F6E6-CBBC-5D6D8DE728D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1563,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CDF00B-E973-C8EE-F655-53C9FE1499FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1599,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD4042-7879-A441-C64E-F4C7344FF0C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1488,26 +1696,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1540,23 +1731,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1719,199 +1893,194 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4EEB47-F66A-4F62-8F55-5F352C5F4AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
         <v>1.9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="10">
         <v>0.2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <f t="array" ref="E2:F6">LINEST(C2:C13,B2:B13,TRUE,TRUE)</f>
-        <v>-7.5577763897564043E-2</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.88492608786175309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+        <v>-7.5577763897564001E-2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.88492608786175297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
         <v>3.1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>0.4</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.20157434036356964</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.35714324011121218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="E3" s="9">
+        <v>0.20157434036357</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.35714324011121201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
         <v>2.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>0.9</v>
       </c>
-      <c r="E4" s="7">
-        <v>1.3862924858421317E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.40327464501102145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="E4" s="9">
+        <v>1.38629248584213E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.403274645011021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
         <v>1.8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>0.9</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.14057807183074456</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="9">
+        <v>0.140578071830745</v>
+      </c>
+      <c r="F5" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
         <v>1.2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>0.7</v>
       </c>
-      <c r="E6" s="7">
-        <v>2.2862273579013159E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.6263043930876537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="E6" s="9">
+        <v>2.2862273579013201E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.62630439308765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10">
         <v>1.4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
         <v>1.6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
         <v>1.7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10">
         <v>1.5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
         <v>1.2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -1921,219 +2090,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B30A39-58C5-49F8-AA85-2DB99A38F162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10">
+        <v>396</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="array" ref="E2:F6">LINEST(B2:B21,A2:A21,TRUE,TRUE)</f>
+        <v>-16.214285714285701</v>
+      </c>
+      <c r="F2" s="9">
+        <v>713.857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>297</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5.7460982029393799</v>
+      </c>
+      <c r="F3" s="9">
+        <v>112.62938799050499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10">
+        <v>397</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.30669239845787799</v>
+      </c>
+      <c r="F4" s="9">
+        <v>71.952530648106205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10">
+        <v>425</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.9625020120400496</v>
+      </c>
+      <c r="F5" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <v>425</v>
+      </c>
+      <c r="E6" s="9">
+        <v>41223.199999999997</v>
+      </c>
+      <c r="F6" s="9">
+        <v>93189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B18" s="10">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
-        <v>396</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="array" ref="E2:F6">LINEST(B2:B21,A2:A21,TRUE,TRUE)</f>
-        <v>-16.214285714285708</v>
-      </c>
-      <c r="F2" s="7">
-        <v>713.85714285714266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
-        <v>297</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5.7460982029393763</v>
-      </c>
-      <c r="F3" s="7">
-        <v>112.62938799050471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3">
-        <v>397</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.30669239845787816</v>
-      </c>
-      <c r="F4" s="7">
-        <v>71.952530648106233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>425</v>
-      </c>
-      <c r="E5" s="7">
-        <v>7.9625020120400496</v>
-      </c>
-      <c r="F5" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>425</v>
-      </c>
-      <c r="E6" s="7">
-        <v>41223.200000000012</v>
-      </c>
-      <c r="F6" s="7">
-        <v>93189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="B21" s="10">
         <v>410</v>
       </c>
     </row>
@@ -2143,747 +2312,744 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D54097-43BC-4BCA-87CB-07933E7F226E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>31.8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>0.87485440351768295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0.76537022735428095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>0.74861095787958698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>7.5446565687304199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>47.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>47.8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2599.5335766387798</v>
+      </c>
+      <c r="H12">
+        <v>2599.5335766387798</v>
+      </c>
+      <c r="I12">
+        <v>45.668471916986398</v>
+      </c>
+      <c r="J12">
+        <v>9.2018382392631003E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>796.90579836121901</v>
+      </c>
+      <c r="H13">
+        <v>56.921842740087001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>95.9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="W1" t="s">
+      <c r="G14" s="5">
+        <v>3396.4393749999999</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>49.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100.4</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>-21.794690600195899</v>
+      </c>
+      <c r="G17">
+        <v>15.671899969814699</v>
+      </c>
+      <c r="H17">
+        <v>-1.39068591824694</v>
+      </c>
+      <c r="I17">
+        <v>0.18603176997854701</v>
+      </c>
+      <c r="J17">
+        <v>-55.407573029833898</v>
+      </c>
+      <c r="K17">
+        <v>11.818191829442</v>
+      </c>
+      <c r="L17">
+        <v>-55.407573029833898</v>
+      </c>
+      <c r="M17">
+        <v>11.818191829442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.3576945334311601</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.34888258894232799</v>
+      </c>
+      <c r="H18" s="5">
+        <v>6.7578452125649102</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9.2018382392631003E-6</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1.6094158010213599</v>
+      </c>
+      <c r="K18" s="5">
+        <v>3.1059732658409702</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1.6094158010213599</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3.1059732658409702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="K24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>31.8</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="F25">
+        <v>53.179995562915103</v>
+      </c>
+      <c r="G25">
+        <v>14.1200044370849</v>
+      </c>
+      <c r="H25">
+        <v>1.9372111913305801</v>
+      </c>
+      <c r="J25">
+        <v>3.125</v>
+      </c>
+      <c r="K25">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>58.366923536463602</v>
+      </c>
+      <c r="G26">
+        <v>-5.8669235364636299</v>
+      </c>
+      <c r="H26">
+        <v>-0.80491971402414797</v>
+      </c>
+      <c r="J26">
+        <v>9.375</v>
+      </c>
+      <c r="K26">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>72.984629643736895</v>
+      </c>
+      <c r="G27">
+        <v>-4.8846296437368597</v>
+      </c>
+      <c r="H27">
+        <v>-0.670152708061448</v>
+      </c>
+      <c r="J27">
+        <v>15.625</v>
+      </c>
+      <c r="K27">
         <v>67.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5">
-        <v>52.5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>77.4642492572561</v>
+      </c>
+      <c r="G28">
+        <v>7.1357507427439399</v>
+      </c>
+      <c r="H28">
+        <v>0.97899800662122605</v>
+      </c>
+      <c r="J28">
+        <v>21.875</v>
+      </c>
+      <c r="K28">
         <v>68.099999999999994</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.87485440351768307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>42.1</v>
-      </c>
-      <c r="C5" s="5">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>77.935788163942306</v>
+      </c>
+      <c r="G29">
+        <v>-12.835788163942301</v>
+      </c>
+      <c r="H29">
+        <v>-1.7610215769784201</v>
+      </c>
+      <c r="J29">
+        <v>28.125</v>
+      </c>
+      <c r="K29">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>80.765021604059697</v>
+      </c>
+      <c r="G30">
+        <v>-8.5650216040596803</v>
+      </c>
+      <c r="H30">
+        <v>-1.1750885617142199</v>
+      </c>
+      <c r="J30">
+        <v>34.375</v>
+      </c>
+      <c r="K30">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>82.415407777461496</v>
+      </c>
+      <c r="G31">
+        <v>-0.71540777746150797</v>
+      </c>
+      <c r="H31">
+        <v>-9.8151240606088902E-2</v>
+      </c>
+      <c r="J31">
+        <v>40.625</v>
+      </c>
+      <c r="K31">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>84.537332857549501</v>
+      </c>
+      <c r="G32">
+        <v>4.6626671424504602</v>
+      </c>
+      <c r="H32">
+        <v>0.63970029259205796</v>
+      </c>
+      <c r="J32">
+        <v>46.875</v>
+      </c>
+      <c r="K32">
         <v>84.6</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.76537022735428095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>42.3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.74861095787958676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>43.5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>72.2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7.5446565687304172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44.2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>81.7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9">
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>87.366566297666907</v>
+      </c>
+      <c r="G33">
+        <v>-8.4665662976669296</v>
+      </c>
+      <c r="H33">
+        <v>-1.1615808661437499</v>
+      </c>
+      <c r="J33">
+        <v>53.125</v>
+      </c>
+      <c r="K33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>89.724260831098107</v>
+      </c>
+      <c r="G34">
+        <v>-1.1242608310980999</v>
+      </c>
+      <c r="H34">
+        <v>-0.154244332831632</v>
+      </c>
+      <c r="J34">
+        <v>59.375</v>
+      </c>
+      <c r="K34">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>90.9031080978137</v>
+      </c>
+      <c r="G35">
+        <v>4.0968919021863099</v>
+      </c>
+      <c r="H35">
+        <v>0.56207807001407994</v>
+      </c>
+      <c r="J35">
+        <v>65.625</v>
+      </c>
+      <c r="K35">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>92.553494271215499</v>
+      </c>
+      <c r="G36">
+        <v>-5.5534942712155004</v>
+      </c>
+      <c r="H36">
+        <v>-0.76191840456743798</v>
+      </c>
+      <c r="J36">
+        <v>71.875</v>
+      </c>
+      <c r="K36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>94.203880444617297</v>
+      </c>
+      <c r="G37">
+        <v>1.69611955538268</v>
+      </c>
+      <c r="H37">
+        <v>0.23270118640276499</v>
+      </c>
+      <c r="J37">
+        <v>78.125</v>
+      </c>
+      <c r="K37">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>95.854266618019096</v>
+      </c>
+      <c r="G38">
+        <v>8.6457333819808806</v>
+      </c>
+      <c r="H38">
+        <v>1.1861619123039999</v>
+      </c>
+      <c r="J38">
+        <v>84.375</v>
+      </c>
+      <c r="K38">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>96.090036071362206</v>
+      </c>
+      <c r="G39">
+        <v>4.3099639286377602</v>
+      </c>
+      <c r="H39">
+        <v>0.59131074596969901</v>
+      </c>
+      <c r="J39">
+        <v>90.625</v>
+      </c>
+      <c r="K39">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45.1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>46.3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>47.3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>88.6</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>47.8</v>
-      </c>
-      <c r="C12" s="5">
-        <v>95</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2599.5335766387825</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2599.5335766387825</v>
-      </c>
-      <c r="I12" s="8">
-        <v>45.668471916986427</v>
-      </c>
-      <c r="J12" s="8">
-        <v>9.201838239263102E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>48.5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>87</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="8">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8">
-        <v>796.90579836121856</v>
-      </c>
-      <c r="H13" s="8">
-        <v>56.921842740087037</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>49.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>95.9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3396.4393750000008</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>49.9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5">
-        <v>100.4</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>51.3</v>
-      </c>
-      <c r="C17" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="8">
-        <v>-21.794690600195935</v>
-      </c>
-      <c r="G17" s="8">
-        <v>15.671899969814662</v>
-      </c>
-      <c r="H17" s="8">
-        <v>-1.3906859182469427</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.18603176997854717</v>
-      </c>
-      <c r="J17" s="8">
-        <v>-55.407573029833863</v>
-      </c>
-      <c r="K17" s="8">
-        <v>11.818191829441993</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-55.407573029833863</v>
-      </c>
-      <c r="M17" s="8">
-        <v>11.818191829441993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2.3576945334311636</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.34888258894232838</v>
-      </c>
-      <c r="H18" s="9">
-        <v>6.7578452125649058</v>
-      </c>
-      <c r="I18" s="9">
-        <v>9.201838239263102E-6</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1.6094158010213584</v>
-      </c>
-      <c r="K18" s="9">
-        <v>3.1059732658409689</v>
-      </c>
-      <c r="L18" s="9">
-        <v>1.6094158010213584</v>
-      </c>
-      <c r="M18" s="9">
-        <v>3.1059732658409689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>53.179995562915067</v>
-      </c>
-      <c r="G25" s="8">
-        <v>14.12000443708493</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1.9372111913305752</v>
-      </c>
-      <c r="J25" s="8">
-        <v>3.125</v>
-      </c>
-      <c r="K25" s="8">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="8">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8">
-        <v>58.366923536463631</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-5.8669235364636307</v>
-      </c>
-      <c r="H26" s="8">
-        <v>-0.80491971402414797</v>
-      </c>
-      <c r="J26" s="8">
-        <v>9.375</v>
-      </c>
-      <c r="K26" s="8">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="8">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8">
-        <v>72.984629643736852</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-4.8846296437368579</v>
-      </c>
-      <c r="H27" s="8">
-        <v>-0.67015270806144756</v>
-      </c>
-      <c r="J27" s="8">
-        <v>15.625</v>
-      </c>
-      <c r="K27" s="8">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="8">
-        <v>4</v>
-      </c>
-      <c r="F28" s="8">
-        <v>77.464249257256057</v>
-      </c>
-      <c r="G28" s="8">
-        <v>7.1357507427439373</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.97899800662122649</v>
-      </c>
-      <c r="J28" s="8">
-        <v>21.875</v>
-      </c>
-      <c r="K28" s="8">
-        <v>68.099999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="8">
-        <v>5</v>
-      </c>
-      <c r="F29" s="8">
-        <v>77.935788163942277</v>
-      </c>
-      <c r="G29" s="8">
-        <v>-12.835788163942283</v>
-      </c>
-      <c r="H29" s="8">
-        <v>-1.7610215769784154</v>
-      </c>
-      <c r="J29" s="8">
-        <v>28.125</v>
-      </c>
-      <c r="K29" s="8">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="8">
-        <v>6</v>
-      </c>
-      <c r="F30" s="8">
-        <v>80.765021604059683</v>
-      </c>
-      <c r="G30" s="8">
-        <v>-8.5650216040596803</v>
-      </c>
-      <c r="H30" s="8">
-        <v>-1.1750885617142224</v>
-      </c>
-      <c r="J30" s="8">
-        <v>34.375</v>
-      </c>
-      <c r="K30" s="8">
-        <v>78.900000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="8">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8">
-        <v>82.41540777746151</v>
-      </c>
-      <c r="G31" s="8">
-        <v>-0.71540777746150752</v>
-      </c>
-      <c r="H31" s="8">
-        <v>-9.8151240606088916E-2</v>
-      </c>
-      <c r="J31" s="8">
-        <v>40.625</v>
-      </c>
-      <c r="K31" s="8">
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="8">
-        <v>8</v>
-      </c>
-      <c r="F32" s="8">
-        <v>84.537332857549544</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4.6626671424504593</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.63970029259205774</v>
-      </c>
-      <c r="J32" s="8">
-        <v>46.875</v>
-      </c>
-      <c r="K32" s="8">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="8">
-        <v>9</v>
-      </c>
-      <c r="F33" s="8">
-        <v>87.366566297666935</v>
-      </c>
-      <c r="G33" s="8">
-        <v>-8.4665662976669296</v>
-      </c>
-      <c r="H33" s="8">
-        <v>-1.1615808661437461</v>
-      </c>
-      <c r="J33" s="8">
-        <v>53.125</v>
-      </c>
-      <c r="K33" s="8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="8">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8">
-        <v>89.724260831098093</v>
-      </c>
-      <c r="G34" s="8">
-        <v>-1.1242608310980984</v>
-      </c>
-      <c r="H34" s="8">
-        <v>-0.15424433283163208</v>
-      </c>
-      <c r="J34" s="8">
-        <v>59.375</v>
-      </c>
-      <c r="K34" s="8">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="8">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8">
-        <v>90.903108097813686</v>
-      </c>
-      <c r="G35" s="8">
-        <v>4.0968919021863144</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.5620780700140795</v>
-      </c>
-      <c r="J35" s="8">
-        <v>65.625</v>
-      </c>
-      <c r="K35" s="8">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="8">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8">
-        <v>92.553494271215499</v>
-      </c>
-      <c r="G36" s="8">
-        <v>-5.5534942712154987</v>
-      </c>
-      <c r="H36" s="8">
-        <v>-0.76191840456743842</v>
-      </c>
-      <c r="J36" s="8">
-        <v>71.875</v>
-      </c>
-      <c r="K36" s="8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="8">
-        <v>13</v>
-      </c>
-      <c r="F37" s="8">
-        <v>94.203880444617326</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1.6961195553826798</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.23270118640276483</v>
-      </c>
-      <c r="J37" s="8">
-        <v>78.125</v>
-      </c>
-      <c r="K37" s="8">
-        <v>95.9</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="8">
-        <v>14</v>
-      </c>
-      <c r="F38" s="8">
-        <v>95.854266618019125</v>
-      </c>
-      <c r="G38" s="8">
-        <v>8.6457333819808753</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1.1861619123040048</v>
-      </c>
-      <c r="J38" s="8">
-        <v>84.375</v>
-      </c>
-      <c r="K38" s="8">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="8">
-        <v>15</v>
-      </c>
-      <c r="F39" s="8">
-        <v>96.090036071362249</v>
-      </c>
-      <c r="G39" s="8">
-        <v>4.3099639286377567</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0.59131074596969935</v>
-      </c>
-      <c r="J39" s="8">
-        <v>90.625</v>
-      </c>
-      <c r="K39" s="8">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="40" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="9">
-        <v>16</v>
-      </c>
-      <c r="F40" s="9">
-        <v>99.155038964822751</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3.3449610351772492</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.4589159996926917</v>
-      </c>
-      <c r="J40" s="9">
+      <c r="F40" s="5">
+        <v>99.155038964822793</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3.3449610351772501</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.45891599969269198</v>
+      </c>
+      <c r="J40" s="5">
         <v>96.875</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="5">
         <v>104.5</v>
       </c>
     </row>

--- a/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_5.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_5.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39403437-0C83-489C-8B38-1BEB8C70EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unemployment due to Inflation" sheetId="1" r:id="rId1"/>
@@ -201,11 +195,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +215,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
@@ -231,7 +227,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +235,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
@@ -247,18 +242,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +409,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,17 +624,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -322,30 +891,71 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -380,16 +990,18 @@
               <a:rPr lang="en-US"/>
               <a:t>Residual Plot</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -401,6 +1013,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Mortality due to Temperature'!$B$2:$B$17</c:f>
@@ -414,7 +1029,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42.1</c:v>
@@ -468,59 +1083,54 @@
                   <c:v>14.1200044370849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.8669235364636299</c:v>
+                  <c:v>-5.86692353646363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.8846296437368597</c:v>
+                  <c:v>-4.88462964373686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1357507427439399</c:v>
+                  <c:v>7.13575074274394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.835788163942301</c:v>
+                  <c:v>-12.8357881639423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.5650216040596803</c:v>
+                  <c:v>-8.56502160405968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.71540777746150797</c:v>
+                  <c:v>-0.715407777461508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6626671424504602</c:v>
+                  <c:v>4.66266714245046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.4665662976669296</c:v>
+                  <c:v>-8.46656629766693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1242608310980999</c:v>
+                  <c:v>-1.1242608310981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0968919021863099</c:v>
+                  <c:v>4.09689190218631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.5534942712155004</c:v>
+                  <c:v>-5.5534942712155</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.69611955538268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6457333819808806</c:v>
+                  <c:v>8.64573338198088</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3099639286377602</c:v>
+                  <c:v>4.30996392863776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3449610351772501</c:v>
+                  <c:v>3.34496103517725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE00-4674-9A81-B0F05D7B8EFD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -561,9 +1171,11 @@
                   <a:rPr lang="el-GR"/>
                   <a:t>Θερμοκρασία</a:t>
                 </a:r>
+                <a:endParaRPr lang="el-GR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -584,7 +1196,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250451744"/>
@@ -618,9 +1229,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Residuals</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -641,7 +1254,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250457504"/>
@@ -665,7 +1277,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -677,9 +1288,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -714,22 +1325,32 @@
               <a:rPr lang="en-US"/>
               <a:t>Line Fit  Plot</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Θνησιμότητα</c:v>
+            <c:strRef>
+              <c:f>"Θνησιμότητα"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Θνησιμότητα</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
@@ -738,6 +1359,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Mortality due to Temperature'!$B$2:$B$17</c:f>
@@ -751,7 +1375,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42.1</c:v>
@@ -808,13 +1432,13 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>68.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>84.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.099999999999994</c:v>
+                  <c:v>65.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.2</c:v>
@@ -826,7 +1450,7 @@
                   <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.900000000000006</c:v>
+                  <c:v>78.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>88.6</c:v>
@@ -853,11 +1477,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C3C-4AF9-A34A-80628CBB4586}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -871,17 +1490,28 @@
         <c:axId val="1250444064"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="smooth"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Predicted Θνησιμότητα</c:v>
+            <c:strRef>
+              <c:f>"Predicted Θνησιμότητα"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Θνησιμότητα</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Mortality due to Temperature'!$B$2:$B$17</c:f>
@@ -895,7 +1525,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42.1</c:v>
@@ -946,62 +1576,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>53.179995562915103</c:v>
+                  <c:v>53.1799955629151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.366923536463602</c:v>
+                  <c:v>58.3669235364636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.984629643736895</c:v>
+                  <c:v>72.9846296437369</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>77.4642492572561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.935788163942306</c:v>
+                  <c:v>77.9357881639423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.765021604059697</c:v>
+                  <c:v>80.7650216040597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.415407777461496</c:v>
+                  <c:v>82.4154077774615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.537332857549501</c:v>
+                  <c:v>84.5373328575495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.366566297666907</c:v>
+                  <c:v>87.3665662976669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.724260831098107</c:v>
+                  <c:v>89.7242608310981</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>90.9031080978137</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92.553494271215499</c:v>
+                  <c:v>92.5534942712155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.203880444617297</c:v>
+                  <c:v>94.2038804446173</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.854266618019096</c:v>
+                  <c:v>95.8542666180191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.090036071362206</c:v>
+                  <c:v>96.0900360713622</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.155038964822793</c:v>
+                  <c:v>99.1550389648228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C3C-4AF9-A34A-80628CBB4586}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1042,9 +1667,11 @@
                   <a:rPr lang="el-GR"/>
                   <a:t>Θερμοκρασία</a:t>
                 </a:r>
+                <a:endParaRPr lang="el-GR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1065,7 +1692,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250444064"/>
@@ -1099,9 +1725,11 @@
                   <a:rPr lang="el-GR"/>
                   <a:t>Θνησιμότητα</a:t>
                 </a:r>
+                <a:endParaRPr lang="el-GR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1122,7 +1750,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250444544"/>
@@ -1132,6 +1759,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1147,7 +1775,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1167,7 +1794,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1179,9 +1805,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1212,16 +1838,18 @@
               <a:rPr lang="en-US"/>
               <a:t>Normal Probability Plot</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1233,6 +1861,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Mortality due to Temperature'!$J$25:$J$40</c:f>
@@ -1300,19 +1931,19 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.099999999999994</c:v>
+                  <c:v>65.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>67.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>68.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.900000000000006</c:v>
+                  <c:v>78.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>81.7</c:v>
@@ -1348,11 +1979,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7CB-4941-A804-C8DF1ED1ACBE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1392,9 +2018,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Sample Percentile</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1415,7 +2043,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250444544"/>
@@ -1449,9 +2076,11 @@
                   <a:rPr lang="el-GR"/>
                   <a:t>Θνησιμότητα</a:t>
                 </a:r>
+                <a:endParaRPr lang="el-GR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1472,7 +2101,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1250442144"/>
@@ -1496,7 +2124,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1508,7 +2135,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1522,20 +2149,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="14171930" y="0"/>
+        <a:ext cx="5198110" cy="1920240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1558,20 +2179,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="14188440" y="1955165"/>
+        <a:ext cx="5189855" cy="2121535"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1594,20 +2209,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="14179550" y="4090035"/>
+        <a:ext cx="5190490" cy="2701290"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1892,449 +2501,453 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="14.4" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" ht="14.4" spans="1:6">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1.9</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>0.2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <f t="array" ref="E2:F6">LINEST(C2:C13,B2:B13,TRUE,TRUE)</f>
-        <v>-7.5577763897564001E-2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.88492608786175297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+        <v>-0.075577763897564</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.884926087861753</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>3.1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>0.4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>0.20157434036357</v>
       </c>
-      <c r="F3" s="9">
-        <v>0.35714324011121201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="10">
+        <v>0.357143240111212</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>2.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>0.9</v>
       </c>
-      <c r="E4" s="9">
-        <v>1.38629248584213E-2</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="10">
+        <v>0.0138629248584213</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.403274645011021</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="14.4" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1.8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>0.9</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>0.140578071830745</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" ht="14.4" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>1.2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>0.7</v>
       </c>
-      <c r="E6" s="9">
-        <v>2.2862273579013201E-2</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="10">
+        <v>0.0228622735790132</v>
+      </c>
+      <c r="F6" s="10">
         <v>1.62630439308765</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="14.4" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>1.4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="14.4" spans="1:3">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>1.6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" ht="14.4" spans="1:3">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>1.7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" ht="14.4" spans="1:3">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>1.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" ht="14.4" spans="1:3">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>1.2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" ht="14.4" spans="1:3">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" ht="14.4" spans="1:3">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="C13" s="11">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.88333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="14.4" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" ht="14.4" spans="1:6">
+      <c r="A2" s="11">
         <v>20</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>396</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <f t="array" ref="E2:F6">LINEST(B2:B21,A2:A21,TRUE,TRUE)</f>
-        <v>-16.214285714285701</v>
-      </c>
-      <c r="F2" s="9">
+        <v>-16.2142857142857</v>
+      </c>
+      <c r="F2" s="10">
         <v>713.857142857143</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" ht="14.4" spans="1:6">
+      <c r="A3" s="11">
         <v>22</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>297</v>
       </c>
-      <c r="E3" s="9">
-        <v>5.7460982029393799</v>
-      </c>
-      <c r="F3" s="9">
-        <v>112.62938799050499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="E3" s="10">
+        <v>5.74609820293938</v>
+      </c>
+      <c r="F3" s="10">
+        <v>112.629387990505</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:6">
+      <c r="A4" s="11">
         <v>23</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>397</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.30669239845787799</v>
-      </c>
-      <c r="F4" s="9">
-        <v>71.952530648106205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="E4" s="10">
+        <v>0.306692398457878</v>
+      </c>
+      <c r="F4" s="10">
+        <v>71.9525306481062</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:6">
+      <c r="A5" s="11">
         <v>18</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>425</v>
       </c>
-      <c r="E5" s="9">
-        <v>7.9625020120400496</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="10">
+        <v>7.96250201204005</v>
+      </c>
+      <c r="F5" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" ht="14.4" spans="1:6">
+      <c r="A6" s="11">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>425</v>
       </c>
-      <c r="E6" s="9">
-        <v>41223.199999999997</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="10">
+        <v>41223.2</v>
+      </c>
+      <c r="F6" s="10">
         <v>93189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" ht="14.4" spans="1:2">
+      <c r="A7" s="11">
         <v>24</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" ht="14.4" spans="1:2">
+      <c r="A8" s="11">
         <v>25</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" ht="14.4" spans="1:2">
+      <c r="A9" s="11">
         <v>20</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" ht="14.4" spans="1:2">
+      <c r="A10" s="11">
         <v>22</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" ht="14.4" spans="1:2">
+      <c r="A11" s="11">
         <v>18</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" ht="14.4" spans="1:2">
+      <c r="A12" s="11">
         <v>16</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" ht="14.4" spans="1:2">
+      <c r="A13" s="11">
         <v>16</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" ht="14.4" spans="1:2">
+      <c r="A14" s="11">
         <v>17</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" ht="14.4" spans="1:2">
+      <c r="A15" s="11">
         <v>20</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" ht="14.4" spans="1:2">
+      <c r="A16" s="11">
         <v>21</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" ht="14.4" spans="1:2">
+      <c r="A17" s="11">
         <v>19</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" ht="14.4" spans="1:2">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" ht="14.4" spans="1:2">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="20" ht="14.4" spans="1:2">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+    <row r="21" ht="14.4" spans="1:2">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.4416666666667" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2344,185 +2957,185 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="2"/>
       <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" ht="14.55" spans="1:3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>31.8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>67.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>52.5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C4" s="3">
-        <v>68.099999999999994</v>
+      <c r="B4" s="4">
+        <v>40.2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68.1</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4">
-        <v>0.87485440351768295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>0.874854403517683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>42.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>84.6</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5">
-        <v>0.76537022735428095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+        <v>0.765370227354281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>42.3</v>
       </c>
-      <c r="C6" s="3">
-        <v>65.099999999999994</v>
+      <c r="C6" s="4">
+        <v>65.1</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6">
-        <v>0.74861095787958698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+        <v>0.748610957879587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>43.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>72.2</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>7.5446565687304199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>7.54465656873042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>44.2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>81.7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>45.1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>89.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" ht="14.55" spans="1:5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>46.3</v>
       </c>
-      <c r="C10" s="3">
-        <v>78.900000000000006</v>
+      <c r="C10" s="4">
+        <v>78.9</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>47.3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>88.6</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>47.8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>95</v>
       </c>
       <c r="E12" t="s">
@@ -2532,26 +3145,26 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2599.5335766387798</v>
+        <v>2599.53357663878</v>
       </c>
       <c r="H12">
-        <v>2599.5335766387798</v>
+        <v>2599.53357663878</v>
       </c>
       <c r="I12">
-        <v>45.668471916986398</v>
+        <v>45.6684719169864</v>
       </c>
       <c r="J12">
-        <v>9.2018382392631003E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+        <v>9.2018382392631e-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>48.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>87</v>
       </c>
       <c r="E13" t="s">
@@ -2561,190 +3174,191 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>796.90579836121901</v>
+        <v>796.905798361219</v>
       </c>
       <c r="H13">
-        <v>56.921842740087001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+        <v>56.921842740087</v>
+      </c>
+    </row>
+    <row r="14" ht="14.55" spans="1:10">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>49.2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>95.9</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>15</v>
       </c>
-      <c r="G14" s="5">
-        <v>3396.4393749999999</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="G14" s="6">
+        <v>3396.439375</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" ht="14.55" spans="1:3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>49.9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>104.5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>50</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>100.4</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>51.3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>102.5</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17">
-        <v>-21.794690600195899</v>
+        <v>-21.7946906001959</v>
       </c>
       <c r="G17">
-        <v>15.671899969814699</v>
+        <v>15.6718999698147</v>
       </c>
       <c r="H17">
         <v>-1.39068591824694</v>
       </c>
       <c r="I17">
-        <v>0.18603176997854701</v>
+        <v>0.186031769978547</v>
       </c>
       <c r="J17">
-        <v>-55.407573029833898</v>
+        <v>-55.4075730298339</v>
       </c>
       <c r="K17">
         <v>11.818191829442</v>
       </c>
       <c r="L17">
-        <v>-55.407573029833898</v>
+        <v>-55.4075730298339</v>
       </c>
       <c r="M17">
         <v>11.818191829442</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+    <row r="18" ht="14.55" spans="5:13">
+      <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
-        <v>2.3576945334311601</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.34888258894232799</v>
-      </c>
-      <c r="H18" s="5">
-        <v>6.7578452125649102</v>
-      </c>
-      <c r="I18" s="5">
-        <v>9.2018382392631003E-6</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.6094158010213599</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3.1059732658409702</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1.6094158010213599</v>
-      </c>
-      <c r="M18" s="5">
-        <v>3.1059732658409702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="11" t="s">
+      <c r="F18" s="6">
+        <v>2.35769453343116</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.348882588942328</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6.75784521256491</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9.2018382392631e-6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.60941580102136</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3.10597326584097</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1.60941580102136</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3.10597326584097</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="2"/>
       <c r="J22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="E24" s="6" t="s">
+    <row r="23" ht="14.55"/>
+    <row r="24" spans="5:11">
+      <c r="E24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11">
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>53.179995562915103</v>
+        <v>53.1799955629151</v>
       </c>
       <c r="G25">
         <v>14.1200044370849</v>
       </c>
       <c r="H25">
-        <v>1.9372111913305801</v>
+        <v>1.93721119133058</v>
       </c>
       <c r="J25">
         <v>3.125</v>
@@ -2753,35 +3367,35 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11">
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>58.366923536463602</v>
+        <v>58.3669235364636</v>
       </c>
       <c r="G26">
-        <v>-5.8669235364636299</v>
+        <v>-5.86692353646363</v>
       </c>
       <c r="H26">
-        <v>-0.80491971402414797</v>
+        <v>-0.804919714024148</v>
       </c>
       <c r="J26">
         <v>9.375</v>
       </c>
       <c r="K26">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65.1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>72.984629643736895</v>
+        <v>72.9846296437369</v>
       </c>
       <c r="G27">
-        <v>-4.8846296437368597</v>
+        <v>-4.88462964373686</v>
       </c>
       <c r="H27">
         <v>-0.670152708061448</v>
@@ -2793,7 +3407,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11">
       <c r="E28">
         <v>4</v>
       </c>
@@ -2801,30 +3415,30 @@
         <v>77.4642492572561</v>
       </c>
       <c r="G28">
-        <v>7.1357507427439399</v>
+        <v>7.13575074274394</v>
       </c>
       <c r="H28">
-        <v>0.97899800662122605</v>
+        <v>0.978998006621226</v>
       </c>
       <c r="J28">
         <v>21.875</v>
       </c>
       <c r="K28">
-        <v>68.099999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68.1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29">
-        <v>77.935788163942306</v>
+        <v>77.9357881639423</v>
       </c>
       <c r="G29">
-        <v>-12.835788163942301</v>
+        <v>-12.8357881639423</v>
       </c>
       <c r="H29">
-        <v>-1.7610215769784201</v>
+        <v>-1.76102157697842</v>
       </c>
       <c r="J29">
         <v>28.125</v>
@@ -2833,38 +3447,38 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11">
       <c r="E30">
         <v>6</v>
       </c>
       <c r="F30">
-        <v>80.765021604059697</v>
+        <v>80.7650216040597</v>
       </c>
       <c r="G30">
-        <v>-8.5650216040596803</v>
+        <v>-8.56502160405968</v>
       </c>
       <c r="H30">
-        <v>-1.1750885617142199</v>
+        <v>-1.17508856171422</v>
       </c>
       <c r="J30">
         <v>34.375</v>
       </c>
       <c r="K30">
-        <v>78.900000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78.9</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
       <c r="E31">
         <v>7</v>
       </c>
       <c r="F31">
-        <v>82.415407777461496</v>
+        <v>82.4154077774615</v>
       </c>
       <c r="G31">
-        <v>-0.71540777746150797</v>
+        <v>-0.715407777461508</v>
       </c>
       <c r="H31">
-        <v>-9.8151240606088902E-2</v>
+        <v>-0.0981512406060889</v>
       </c>
       <c r="J31">
         <v>40.625</v>
@@ -2873,18 +3487,18 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11">
       <c r="E32">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>84.537332857549501</v>
+        <v>84.5373328575495</v>
       </c>
       <c r="G32">
-        <v>4.6626671424504602</v>
+        <v>4.66266714245046</v>
       </c>
       <c r="H32">
-        <v>0.63970029259205796</v>
+        <v>0.639700292592058</v>
       </c>
       <c r="J32">
         <v>46.875</v>
@@ -2893,18 +3507,18 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11">
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>87.366566297666907</v>
+        <v>87.3665662976669</v>
       </c>
       <c r="G33">
-        <v>-8.4665662976669296</v>
+        <v>-8.46656629766693</v>
       </c>
       <c r="H33">
-        <v>-1.1615808661437499</v>
+        <v>-1.16158086614375</v>
       </c>
       <c r="J33">
         <v>53.125</v>
@@ -2913,15 +3527,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11">
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>89.724260831098107</v>
+        <v>89.7242608310981</v>
       </c>
       <c r="G34">
-        <v>-1.1242608310980999</v>
+        <v>-1.1242608310981</v>
       </c>
       <c r="H34">
         <v>-0.154244332831632</v>
@@ -2933,7 +3547,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11">
       <c r="E35">
         <v>11</v>
       </c>
@@ -2941,10 +3555,10 @@
         <v>90.9031080978137</v>
       </c>
       <c r="G35">
-        <v>4.0968919021863099</v>
+        <v>4.09689190218631</v>
       </c>
       <c r="H35">
-        <v>0.56207807001407994</v>
+        <v>0.56207807001408</v>
       </c>
       <c r="J35">
         <v>65.625</v>
@@ -2953,18 +3567,18 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11">
       <c r="E36">
         <v>12</v>
       </c>
       <c r="F36">
-        <v>92.553494271215499</v>
+        <v>92.5534942712155</v>
       </c>
       <c r="G36">
-        <v>-5.5534942712155004</v>
+        <v>-5.5534942712155</v>
       </c>
       <c r="H36">
-        <v>-0.76191840456743798</v>
+        <v>-0.761918404567438</v>
       </c>
       <c r="J36">
         <v>71.875</v>
@@ -2973,18 +3587,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11">
       <c r="E37">
         <v>13</v>
       </c>
       <c r="F37">
-        <v>94.203880444617297</v>
+        <v>94.2038804446173</v>
       </c>
       <c r="G37">
         <v>1.69611955538268</v>
       </c>
       <c r="H37">
-        <v>0.23270118640276499</v>
+        <v>0.232701186402765</v>
       </c>
       <c r="J37">
         <v>78.125</v>
@@ -2993,18 +3607,18 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11">
       <c r="E38">
         <v>14</v>
       </c>
       <c r="F38">
-        <v>95.854266618019096</v>
+        <v>95.8542666180191</v>
       </c>
       <c r="G38">
-        <v>8.6457333819808806</v>
+        <v>8.64573338198088</v>
       </c>
       <c r="H38">
-        <v>1.1861619123039999</v>
+        <v>1.186161912304</v>
       </c>
       <c r="J38">
         <v>84.375</v>
@@ -3013,18 +3627,18 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11">
       <c r="E39">
         <v>15</v>
       </c>
       <c r="F39">
-        <v>96.090036071362206</v>
+        <v>96.0900360713622</v>
       </c>
       <c r="G39">
-        <v>4.3099639286377602</v>
+        <v>4.30996392863776</v>
       </c>
       <c r="H39">
-        <v>0.59131074596969901</v>
+        <v>0.591310745969699</v>
       </c>
       <c r="J39">
         <v>90.625</v>
@@ -3033,28 +3647,28 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="5">
+    <row r="40" ht="14.55" spans="5:11">
+      <c r="E40" s="6">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
-        <v>99.155038964822793</v>
-      </c>
-      <c r="G40" s="5">
-        <v>3.3449610351772501</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.45891599969269198</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="F40" s="6">
+        <v>99.1550389648228</v>
+      </c>
+      <c r="G40" s="6">
+        <v>3.34496103517725</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.458915999692692</v>
+      </c>
+      <c r="J40" s="6">
         <v>96.875</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="6">
         <v>104.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K25:K40">
+  <sortState ref="K25:K40">
     <sortCondition ref="K25"/>
   </sortState>
   <mergeCells count="2">
@@ -3062,6 +3676,7 @@
     <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>